--- a/w12/integracion_numerica.xlsx
+++ b/w12/integracion_numerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="180" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="triangulo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>x</t>
   </si>
@@ -68,11 +68,56 @@
   <si>
     <t>x1</t>
   </si>
+  <si>
+    <t>multiplicador</t>
+  </si>
+  <si>
+    <t>Comprabacion</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>x^3/3</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>f(x) = 1/x</t>
+  </si>
+  <si>
+    <t>iter</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>f(x) = …</t>
+  </si>
+  <si>
+    <t>iter 1</t>
+  </si>
+  <si>
+    <t>iter 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +194,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,27 +209,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2020761320"/>
-        <c:axId val="2020763320"/>
+        <c:axId val="2053968472"/>
+        <c:axId val="2053971688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2020761320"/>
+        <c:axId val="2053968472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -284,12 +363,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2020763320"/>
+        <c:crossAx val="2053971688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2020763320"/>
+        <c:axId val="2053971688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2020761320"/>
+        <c:crossAx val="2053968472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -406,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069178984"/>
-        <c:axId val="2069175336"/>
+        <c:axId val="2108049912"/>
+        <c:axId val="2108052888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069178984"/>
+        <c:axId val="2108049912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069175336"/>
+        <c:crossAx val="2108052888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069175336"/>
+        <c:axId val="2108052888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069178984"/>
+        <c:crossAx val="2108049912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -554,11 +633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076816696"/>
-        <c:axId val="2076426984"/>
+        <c:axId val="2053890216"/>
+        <c:axId val="2053893240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076816696"/>
+        <c:axId val="2053890216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,12 +647,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076426984"/>
+        <c:crossAx val="2053893240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076426984"/>
+        <c:axId val="2053893240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076816696"/>
+        <c:crossAx val="2053890216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,84 +713,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'t-student'!$B$9:$B$19</c:f>
+              <c:f>'1 entre x'!$B$31:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1</c:v>
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'t-student'!$F$9:$F$19</c:f>
+              <c:f>'1 entre x'!$C$31:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.388034908871669</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.385436939844832</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.377767323980263</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.365387489607798</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.348863331270197</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.328915963281718</c:v>
+                  <c:v>0.444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.306362592894306</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.282054971406634</c:v>
+                  <c:v>0.363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.256822344419287</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.231424258297114</c:v>
+                  <c:v>0.307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.206516442244851</c:v>
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,11 +817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069137448"/>
-        <c:axId val="2069134456"/>
+        <c:axId val="2107694200"/>
+        <c:axId val="2106538056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069137448"/>
+        <c:axId val="2107694200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,12 +831,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069134456"/>
+        <c:crossAx val="2106538056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069134456"/>
+        <c:axId val="2106538056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +847,411 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069137448"/>
+        <c:crossAx val="2107694200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t-student'!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t-student'!$F$9:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.388034908871669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.385436939844832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.377767323980263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.365387489607798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.348863331270197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.328915963281718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.306362592894306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.282054971406634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.256822344419287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.231424258297114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.206516442244851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2106849336"/>
+        <c:axId val="2106852360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2106849336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106852360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2106852360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106849336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t-student'!$B$36:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.045</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t-student'!$F$36:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.388034908871669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38738345168298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.385436939844832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.382218768629231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.377767323980263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.372135096902515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.365387489607798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35760135648171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.348863331270197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.339267997642972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.328915963281718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.317911897860492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.306362592894306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.294375096734876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.282054971406634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.269504709992253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.256822344419286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.244100264288032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.231424258297114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.218872781284747</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.206516442244851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2111375384"/>
+        <c:axId val="2111531800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2111375384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2111531800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2111531800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2111375384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -782,16 +1277,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>766233</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -884,6 +1379,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -891,16 +1416,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160868</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605367</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -916,6 +1441,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245534</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1246,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1258,26 +1813,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1286,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <f>C2/C3</f>
+        <f>(C2-C1)/C3</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -1295,18 +1850,25 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="9" spans="2:6">
-      <c r="B9">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <f>2*B9</f>
         <v>0</v>
       </c>
@@ -1318,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>D9*C9*$F$5</f>
+        <f>E9*$F$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10">
+      <c r="B10" s="6">
         <f>B9+$C$5</f>
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <f t="shared" ref="C10:C13" si="0">2*B10</f>
         <v>2</v>
       </c>
@@ -1339,16 +1901,16 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F13" si="2">D10*C10*$F$5</f>
+        <f t="shared" ref="F10:F13" si="2">E10*$F$5</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11">
+      <c r="B11" s="6">
         <f t="shared" ref="B11:B13" si="3">B10+$C$5</f>
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1365,11 +1927,11 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12">
+      <c r="B12" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1386,11 +1948,11 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13">
+      <c r="B13" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1406,6 +1968,11 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
+    <row r="14" spans="2:6">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="15" spans="2:6">
       <c r="D15" t="s">
         <v>4</v>
@@ -1423,16 +1990,50 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="F19" s="7">
+        <f>F17-F18</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
       <c r="F20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="3:7">
       <c r="F21" t="s">
         <v>5</v>
       </c>
@@ -1452,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1490,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <f>C2/C3</f>
+        <f>(C2-C1)/C3</f>
         <v>0.25</v>
       </c>
       <c r="E5" t="s">
@@ -1510,19 +2111,26 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9">
-        <f>B9*B9</f>
+      <c r="C9" s="6">
+        <f>B9^2</f>
         <v>0</v>
       </c>
       <c r="D9" s="1">
@@ -1533,17 +2141,17 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>D9*C9*$F$5</f>
+        <f>E9*$F$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10">
+      <c r="B10" s="6">
         <f>B9+$C$5</f>
         <v>0.25</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C13" si="0">B10*B10</f>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:C13" si="0">B10^2</f>
         <v>6.25E-2</v>
       </c>
       <c r="D10">
@@ -1554,16 +2162,16 @@
         <v>0.25</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F13" si="2">D10*C10*$F$5</f>
+        <f t="shared" ref="F10:F13" si="2">E10*$F$5</f>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11">
+      <c r="B11" s="6">
         <f t="shared" ref="B11:B13" si="3">B10+$C$5</f>
         <v>0.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -1580,11 +2188,11 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12">
+      <c r="B12" s="6">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
@@ -1601,11 +2209,11 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13">
+      <c r="B13" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1629,7 +2237,7 @@
         <f>SUM(E9:E13)</f>
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f>SUM(F9:F13)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1642,9 +2250,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
         <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="F19" s="7">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="4:6">
@@ -1670,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1737,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1777,7 +2408,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F17" si="2">D10*C10*$F$5</f>
+        <f t="shared" ref="F10:F15" si="2">D10*C10*$F$5</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -1874,7 +2505,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="1">
@@ -1891,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="2:12">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +2535,7 @@
         <v>1.3876984126984127</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="2:12">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -1912,23 +2543,397 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="2:12">
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>F17</f>
+        <v>1.3876984126984127</v>
+      </c>
+      <c r="K21">
+        <v>1E-3</v>
+      </c>
+      <c r="L21">
+        <f>ABS(I22-I21)</f>
+        <v>1.2899137899138324E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="F22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="F23" t="s">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f>F45</f>
+        <v>1.3864084989084988</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>(C24-C23)/C25</f>
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <f>(C24-C23)/(3*C25)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>1/B31</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31*C31</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>D31*C31*$F$27</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32">
+        <f>B31+$C$27</f>
+        <v>1.25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C43" si="4">1/B32</f>
+        <v>0.8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:E43" si="5">D32*C32</f>
+        <v>3.2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F43" si="6">D32*C32*$F$27</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <f t="shared" ref="B33:B43" si="7">B32+$C$27</f>
+        <v>1.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <f t="shared" si="7"/>
+        <v>1.75</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>0.12121212121212122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>3.25</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>8.8888888888888878E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <f>SUM(E31:E42)</f>
+        <v>16.386901986901989</v>
+      </c>
+      <c r="F45">
+        <f>SUM(F31:F43)</f>
+        <v>1.3864084989084988</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1940,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1952,6 +2957,7 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2008,12 +3014,18 @@
         <v>3.6666666666666667E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="D6">
+        <f>EXP(GAMMALN(5))</f>
+        <v>24.000000000000004</v>
+      </c>
+    </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2292,7 +3304,7 @@
         <v>4.1368062472973033E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -2325,7 +3337,7 @@
         <v>1.8833638590747683E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -2358,7 +3370,7 @@
         <v>3.3942224550243344E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -2391,7 +3403,7 @@
         <v>7.5722695489778688E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="C21" s="5">
         <f>SUM(C9:C19)</f>
         <v>11.517611111111112</v>
@@ -2408,7 +3420,7 @@
         <v>0.35005890428655723</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="G22" t="s">
         <v>5</v>
       </c>
@@ -2416,19 +3428,829 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="G24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <f>H21</f>
+        <v>0.35005890428655723</v>
+      </c>
+      <c r="I25" s="10">
+        <f>ABS(H26-H25)</f>
+        <v>2.6738935615666648E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <f>H58</f>
+        <v>0.35005863689720107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="H27" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f>(C29-C28)/(C30)</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <f>(C29-C28)/(3*C30)</f>
+        <v>1.8333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="D33">
+        <f>EXP(GAMMALN(5))</f>
+        <v>24.000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <f>1+(B36^2/$C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <f>C36^((($C$4+1)/2)*-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <f>EXP(GAMMALN(($C$4+1)/2))/( (($C$4*PI())^0.5)*EXP(GAMMALN(($C$4/2))) )</f>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F36" s="3">
+        <f>D36*E36</f>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>F36*G36*$E$32</f>
+        <v>7.1139733293139251E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>B36+$C$32</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:C56" si="7">1+(B37^2/$C$4)</f>
+        <v>1.0003361111111111</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37:D56" si="8">C37^((($C$4+1)/2)*-1)</f>
+        <v>0.99832113767654795</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ref="E37:E56" si="9">EXP(GAMMALN(($C$4+1)/2))/( (($C$4*PI())^0.5)*EXP(GAMMALN(($C$4/2))) )</f>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" ref="F37:F56" si="10">D37*E37</f>
+        <v>0.38738345168297983</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H56" si="11">F37*G37*$E$32</f>
+        <v>2.8408119790085187E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <f t="shared" ref="A38:A56" si="12">A37+1</f>
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B56" si="13">B37+$C$32</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0013444444444444</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.99330480591452186</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="10"/>
+        <v>0.38543693984483202</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>1.4132687794310508E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="13"/>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0030250000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98501129638219853</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="10"/>
+        <v>0.3822187686292306</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>2.8029376366143579E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="13"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0053777777777777</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97353953302484653</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="10"/>
+        <v>0.37776732398026314</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>1.3851468545942982E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="13"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0084027777777778</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9590247897659846</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.37213509690251501</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>2.7289907106184435E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="13"/>
+        <v>0.33</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0121</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="8"/>
+        <v>0.94163561384277394</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="10"/>
+        <v>0.36538748960779854</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>1.3397541285619281E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="13"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0164694444444444</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="8"/>
+        <v>0.92157006574884326</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="10"/>
+        <v>0.35760135648171004</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>2.6224099475325405E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="13"/>
+        <v>0.44</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="7"/>
+        <v>1.021511111111111</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="8"/>
+        <v>0.89905140824732865</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="10"/>
+        <v>0.34886333127019753</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>1.2791655479907243E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="13"/>
+        <v>0.495</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0272250000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="8"/>
+        <v>0.87432339175229901</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33926799764297161</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>2.4879653160484586E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="13"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="7"/>
+        <v>1.033611111111111</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="8"/>
+        <v>0.84764529108513276</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.32891596328171852</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>1.2060251986996345E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="13"/>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0406694444444444</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="8"/>
+        <v>0.81928684917787131</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="10"/>
+        <v>0.31791189786049184</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>2.3313539176436068E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="13"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0484</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="8"/>
+        <v>0.78952327713284876</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="10"/>
+        <v>0.30636259289430617</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>1.1233295072791227E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="13"/>
+        <v>0.71500000000000019</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0568027777777778</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="8"/>
+        <v>0.75863044794310541</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="10"/>
+        <v>0.29437509673487605</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>2.1587507093890911E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="13"/>
+        <v>0.77000000000000024</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0658777777777777</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="8"/>
+        <v>0.7268804042058904</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="10"/>
+        <v>0.28205497140663432</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>1.0342015618243258E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="13"/>
+        <v>0.82500000000000029</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0756250000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="8"/>
+        <v>0.69453727958631795</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="10"/>
+        <v>0.26950470999225351</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>1.9763678732765258E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="13"/>
+        <v>0.88000000000000034</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0860444444444446</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="8"/>
+        <v>0.66185371096140966</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="10"/>
+        <v>0.25682234441928631</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>9.4168192953738312E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="13"/>
+        <v>0.93500000000000039</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0971361111111111</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="8"/>
+        <v>0.62906779443589</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="10"/>
+        <v>0.24410026428803216</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1.7900686047789025E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="13"/>
+        <v>0.99000000000000044</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1089</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59640061501180708</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.23142425829711369</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>8.485556137560836E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="13"/>
+        <v>1.0450000000000004</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1213361111111111</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="8"/>
+        <v>0.56405435768958956</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="10"/>
+        <v>0.21887278128474746</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>1.6050670627548148E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="13"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1344444444444446</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="8"/>
+        <v>0.53221098804064126</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38803490887166864</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="10"/>
+        <v>0.20651644224485097</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="11"/>
+        <v>3.7861347744889344E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" s="5">
+        <f>SUM(C36:C56)</f>
+        <v>21.964638888888885</v>
+      </c>
+      <c r="D58" s="2">
+        <f>SUM(D36:D56)</f>
+        <v>17.165873057625845</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f>SUM(H36:H56)</f>
+        <v>0.35005863689720107</v>
       </c>
     </row>
   </sheetData>
